--- a/Reporting/Silver_tables/oc_rates_PRIME_A1_2024-08-30.xlsx
+++ b/Reporting/Silver_tables/oc_rates_PRIME_A1_2024-08-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,50 +620,55 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>CP_total_money</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Trade_level_negative_exposure_percentage</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Trade_level_positive_exposure_percentage</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Clean_trade_level_negative_exposure_percentage</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Clean_trade_level_positive_exposure_percentage</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Clean_net_margin_MV</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Net_margin_MV</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Margin_RCV_allocation</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Collateral_value_allocated</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Clean_margin_RCV_allocation</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Margin_RCV_allocation</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Collateral_value_allocated</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Clean_collateral_value_allocated</t>
         </is>
@@ -800,25 +805,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0.352629848397126</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
       <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.352629848397126</v>
       </c>
-      <c r="AP2" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ2" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -827,6 +832,9 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,7 +905,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>22618177.0236</v>
+        <v>22618177.0237</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -963,25 +971,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.1504877461810155</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.1504877461810155</v>
       </c>
-      <c r="AP3" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ3" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -990,6 +998,9 @@
         <v>40556522.07178086</v>
       </c>
       <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
         <v>40556522.07178086</v>
       </c>
     </row>
@@ -1126,25 +1137,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0.1550157246208045</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
       <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>0.1550157246208045</v>
       </c>
-      <c r="AP4" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ4" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1153,6 +1164,9 @@
         <v>26265453.3758106</v>
       </c>
       <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
         <v>26265453.3758106</v>
       </c>
     </row>
@@ -1289,25 +1303,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.1345591595760402</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
       <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>0.1345591595760402</v>
       </c>
-      <c r="AP5" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ5" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1316,6 +1330,9 @@
         <v>27143257.4772486</v>
       </c>
       <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
         <v>27143257.4772486</v>
       </c>
     </row>
@@ -1386,7 +1403,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3737974.0415</v>
+        <v>3737974.0416</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1452,25 +1469,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>0.03301004895636253</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
         <v>0.03301004895636253</v>
       </c>
-      <c r="AP6" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ6" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -1479,6 +1496,9 @@
         <v>6939443.084550001</v>
       </c>
       <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
         <v>6939443.084550001</v>
       </c>
     </row>
@@ -1549,7 +1569,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8909580.141199999</v>
+        <v>8909580.1412</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1615,19 +1635,19 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL7" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="AM7" t="n">
         <v>1</v>
       </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
       <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1</v>
       </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
       <c r="AP7" t="n">
-        <v>5701691.43</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>5701691.43</v>
@@ -1636,13 +1656,16 @@
         <v>5701691.43</v>
       </c>
       <c r="AS7" t="n">
-        <v>5701691.43</v>
+        <v>-5701691.43</v>
       </c>
       <c r="AT7" t="n">
-        <v>5701691.430152578</v>
+        <v>-5701691.429847421</v>
       </c>
       <c r="AU7" t="n">
-        <v>5701691.430152578</v>
+        <v>-5701691.43</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-5701691.429847421</v>
       </c>
     </row>
     <row r="8">
@@ -1778,25 +1801,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>0.00989255569743103</v>
       </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
       <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
         <v>0.00989255569743103</v>
       </c>
-      <c r="AP8" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ8" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -1805,6 +1828,9 @@
         <v>1925102.5599158</v>
       </c>
       <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
         <v>1925102.5599158</v>
       </c>
     </row>
@@ -1875,7 +1901,7 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3931020.3063</v>
+        <v>3931020.3062</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1941,25 +1967,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.01188514808495989</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
         <v>0.01188514808495989</v>
       </c>
-      <c r="AP9" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ9" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -1968,6 +1994,9 @@
         <v>6633386.34953868</v>
       </c>
       <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
         <v>6633386.34953868</v>
       </c>
     </row>
@@ -2104,25 +2133,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>0.03144274576267203</v>
       </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
         <v>0.03144274576267203</v>
       </c>
-      <c r="AP10" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ10" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -2131,6 +2160,9 @@
         <v>5352371.408290497</v>
       </c>
       <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
         <v>5352371.408290497</v>
       </c>
     </row>
@@ -2267,25 +2299,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>0.03866578673177497</v>
       </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
       <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
         <v>0.03866578673177497</v>
       </c>
-      <c r="AP11" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ11" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2294,6 +2326,9 @@
         <v>3989781.9450879</v>
       </c>
       <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
         <v>3989781.9450879</v>
       </c>
     </row>
@@ -2430,25 +2465,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>0.009237418608668668</v>
       </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
         <v>0.009237418608668668</v>
       </c>
-      <c r="AP12" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ12" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -2457,6 +2492,9 @@
         <v>1850301.571508</v>
       </c>
       <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
         <v>1850301.571508</v>
       </c>
     </row>
@@ -2593,25 +2631,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>0.0005571293800115024</v>
       </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
         <v>0.0005571293800115024</v>
       </c>
-      <c r="AP13" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ13" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -2620,6 +2658,9 @@
         <v>6270178.568920499</v>
       </c>
       <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
         <v>6270178.568920499</v>
       </c>
     </row>
@@ -2690,7 +2731,7 @@
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7748217.2628</v>
+        <v>7748217.262800001</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2756,25 +2797,25 @@
         <v>16169055.04714634</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>0.07261668800313317</v>
       </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
         <v>0.07261668800313317</v>
       </c>
-      <c r="AP14" t="n">
-        <v>5701691.43</v>
-      </c>
       <c r="AQ14" t="n">
         <v>5701691.43</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>5701691.43</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -2783,6 +2824,9 @@
         <v>14506356.591034</v>
       </c>
       <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
         <v>14506356.591034</v>
       </c>
     </row>
